--- a/Engus_Export_20260222_213931.xlsx
+++ b/Engus_Export_20260222_213931.xlsx
@@ -39,7 +39,7 @@
     <t>Có điều nào trong số đó nghe có vẻ tệ không?</t>
   </si>
   <si>
-    <t/>
+    <t>Dose any of that sound bad</t>
   </si>
   <si>
     <t>2</t>
@@ -2295,16 +2295,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2614,10 +2611,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="32.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="55.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="42.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="32.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="55.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="42.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -2644,7 +2641,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2936,7 +2933,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21.75">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2948,7 +2945,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21.75">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>

--- a/Engus_Export_20260222_213931.xlsx
+++ b/Engus_Export_20260222_213931.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="739">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="492">
   <si>
     <t>English</t>
   </si>
@@ -30,9 +27,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Does any of that sound bad</t>
   </si>
   <si>
@@ -42,2191 +36,1456 @@
     <t>Dose any of that sound bad</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>I'd better go get ready</t>
   </si>
   <si>
     <t>Tôi nên đi chuẩn bị thôi</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Is this getting you going too</t>
   </si>
   <si>
     <t>Điều này có làm bạn phấn khích không?</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>That's not even an option</t>
   </si>
   <si>
     <t>Thậm chí đó không phải là một lựa chọn</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>I was trying to be truthful</t>
   </si>
   <si>
     <t>Tôi đã cố gắng để trung thực</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Tom is looking for a belt</t>
   </si>
   <si>
     <t>Tom đang tìm một chiếc thắt lưng</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Is it open round the clock</t>
   </si>
   <si>
     <t>Nó mở cửa suốt ngày đêm phải không?</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Ken must be home by now</t>
   </si>
   <si>
     <t>Ken chắc hẳn đã về nhà rồi</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>The house is being built now</t>
   </si>
   <si>
     <t>Ngôi nhà hiện đang được xây dựng</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>It's all up with the firm</t>
   </si>
   <si>
     <t>Mọi chuyện đều do công ty quyết định</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>This ice is going to crack</t>
   </si>
   <si>
     <t>Băng này sắp nứt rồi</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>If it means that much to you</t>
   </si>
   <si>
     <t>Nếu nó có ý nghĩa nhiều như vậy với bạn</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Are you sure she can do it</t>
   </si>
   <si>
     <t>Bạn có chắc cô ấy có thể làm được không?</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>I thought I had until 2:30</t>
   </si>
   <si>
     <t>Tôi nghĩ tôi có thời gian đến 2:30</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>She sang well as a child</t>
   </si>
   <si>
     <t>Cô ấy hát hay khi còn nhỏ</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>What they did next was bad</t>
   </si>
   <si>
     <t>Những gì họ làm tiếp theo là tệ</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>Were you at home last night</t>
   </si>
   <si>
     <t>Tối qua bạn có ở nhà không?</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>Tom is very important to me</t>
   </si>
   <si>
     <t>Tom rất quan trọng với tôi</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>I'll just have one drink</t>
   </si>
   <si>
     <t>Tôi chỉ uống một ly thôi</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>It'll pay off later on</t>
   </si>
   <si>
     <t>Nó sẽ trả giá sau này</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>You have no idea who I am</t>
   </si>
   <si>
     <t>Bạn không biết tôi là ai</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>I need to be there by 2:30</t>
   </si>
   <si>
     <t>Tôi cần phải có mặt ở đó lúc 2:30</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>What does that remind you of</t>
   </si>
   <si>
     <t>Điều đó nhắc nhở bạn về điều gì?</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Which team is likely to win</t>
   </si>
   <si>
     <t>Đội nào có khả năng giành chiến thắng</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>Mary is working as a model</t>
   </si>
   <si>
     <t>Mary đang làm người mẫu</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>We don't hear a thing</t>
   </si>
   <si>
     <t>Chúng tôi không nghe thấy gì cả</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>I just got scared to death</t>
   </si>
   <si>
     <t>Tôi vừa mới sợ chết khiếp</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>Tom will be here by 2:30</t>
   </si>
   <si>
     <t>Tom sẽ ở đây lúc 2:30</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>Do I have to stand in line</t>
   </si>
   <si>
     <t>Tôi có phải xếp hàng không?</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>This boy is in fine shape</t>
   </si>
   <si>
     <t>Cậu bé này có vóc dáng đẹp</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>I have lots of things to do</t>
   </si>
   <si>
     <t>Tôi có rất nhiều việc phải làm</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>You can tear the box open</t>
   </si>
   <si>
     <t>Bạn có thể xé hộp ra</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>That's where we were today</t>
   </si>
   <si>
     <t>Đó là nơi chúng ta đã ở ngày hôm nay</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>You'll be safer with me</t>
   </si>
   <si>
     <t>Bạn sẽ an toàn hơn khi ở cùng tôi</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>Tom is dying in his bed</t>
   </si>
   <si>
     <t>Tom đang hấp hối trên giường</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>The very spits at the fire</t>
   </si>
   <si>
     <t>Chính những người khạc nhổ vào lửa</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>I was just in time for class</t>
   </si>
   <si>
     <t>Tôi vừa kịp giờ vào lớp</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>It isn't healthy for you</t>
   </si>
   <si>
     <t>Nó không tốt cho sức khỏe của bạn</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>Why would you have to do that</t>
   </si>
   <si>
     <t>Tại sao bạn phải làm điều đó?</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>Just tell them not to worry</t>
   </si>
   <si>
     <t>Chỉ cần bảo họ đừng lo lắng</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>Do you really like doing that</t>
   </si>
   <si>
     <t>Bạn có thực sự thích làm điều đó không?</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>Who are the girl's parents</t>
   </si>
   <si>
     <t>Bố mẹ của cô gái là ai?</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>I'm not sure what to say</t>
   </si>
   <si>
     <t>Tôi không biết phải nói gì</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>It's never going to happen</t>
   </si>
   <si>
     <t>Điều đó sẽ không bao giờ xảy ra</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>I didn't know her then</t>
   </si>
   <si>
     <t>Lúc đó tôi không biết cô ấy</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>I used to do the same thing</t>
   </si>
   <si>
     <t>Tôi đã từng làm điều tương tự</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>I know I'm being watched</t>
   </si>
   <si>
     <t>Tôi biết tôi đang bị theo dõi</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>We must abide by the law</t>
   </si>
   <si>
     <t>Chúng ta phải tuân thủ luật pháp</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>When did you read the report</t>
   </si>
   <si>
     <t>Bạn đã đọc báo cáo khi nào?</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>I never got along with them</t>
   </si>
   <si>
     <t>Tôi chưa bao giờ hòa hợp với họ</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>I wonder what Tom will do</t>
   </si>
   <si>
     <t>Tôi tự hỏi Tom sẽ làm gì</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>She's the one with a family</t>
   </si>
   <si>
     <t>Cô ấy là người có gia đình</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>This mug is made of iron</t>
   </si>
   <si>
     <t>Cái cốc này được làm bằng sắt</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>We think we can handle that</t>
   </si>
   <si>
     <t>Chúng tôi nghĩ chúng tôi có thể xử lý được điều đó</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>She didn't get the job</t>
   </si>
   <si>
     <t>Cô ấy đã không nhận được công việc</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>Tom put on a gas mask</t>
   </si>
   <si>
     <t>Tom đeo mặt nạ phòng độc</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>He has taken on bad ways</t>
   </si>
   <si>
     <t>Anh ta đã đi theo con đường xấu</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>He told me about it himself</t>
   </si>
   <si>
     <t>Anh ấy đã tự mình kể cho tôi nghe về điều đó</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>Why didn't you say so</t>
   </si>
   <si>
     <t>Tại sao bạn không nói thế?</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>She's getting on all right</t>
   </si>
   <si>
     <t>Cô ấy đang tiến triển tốt</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>Does Tom still have a job</t>
   </si>
   <si>
     <t>Tom vẫn còn việc làm chứ?</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>She presented the lady to me</t>
   </si>
   <si>
     <t>Cô ấy giới thiệu người phụ nữ với tôi</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>She must be angry with me</t>
   </si>
   <si>
     <t>Cô ấy hẳn đang giận tôi</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>The exact time is three now</t>
   </si>
   <si>
     <t>Thời gian chính xác bây giờ là ba giờ</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>I should've come with you</t>
   </si>
   <si>
     <t>Tôi nên đi cùng bạn</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>He put his boots back on</t>
   </si>
   <si>
     <t>Anh ấy đi giày trở lại</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>She's waiting for you now</t>
   </si>
   <si>
     <t>Cô ấy đang đợi bạn bây giờ</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>I invited her to the movies</t>
   </si>
   <si>
     <t>Tôi đã mời cô ấy đi xem phim</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>Why did you buy a flower</t>
   </si>
   <si>
     <t>Tại sao bạn mua một bông hoa?</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>At least say you are sorry</t>
   </si>
   <si>
     <t>Ít nhất hãy nói rằng bạn xin lỗi</t>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>Tom is out taking a walk</t>
   </si>
   <si>
     <t>Tom đang đi dạo</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
     <t>I have my doubts about her</t>
   </si>
   <si>
     <t>Tôi có nghi ngờ về cô ấy</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
     <t>He likes all that is sweet</t>
   </si>
   <si>
     <t>Anh ấy thích tất cả những gì ngọt ngào</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>Do I look like a plumber</t>
   </si>
   <si>
     <t>Tôi có giống một thợ sửa ống nước không?</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
     <t>It's hard to stay calm</t>
   </si>
   <si>
     <t>Thật khó để giữ bình tĩnh</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
     <t>It's a very gloomy day</t>
   </si>
   <si>
     <t>Hôm nay là một ngày rất u ám</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>Tom told the dog to stay</t>
   </si>
   <si>
     <t>Tom bảo con chó ở lại</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>Would you help me move this</t>
   </si>
   <si>
     <t>Bạn có thể giúp tôi di chuyển cái này được không?</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>I've just sold my car</t>
   </si>
   <si>
     <t>Tôi vừa bán xe của tôi</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>I saw you spying on them</t>
   </si>
   <si>
     <t>Tôi thấy anh đang theo dõi họ</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
     <t>He may do that on his own</t>
   </si>
   <si>
     <t>Anh ấy có thể tự mình làm điều đó</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>Many people were out of work</t>
   </si>
   <si>
     <t>Nhiều người đã mất việc</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>Tom is going to be waiting</t>
   </si>
   <si>
     <t>Tom sẽ chờ đợi</t>
   </si>
   <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>Why did it have to be them</t>
   </si>
   <si>
     <t>Tại sao lại phải là họ</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
     <t>Who's that man over there</t>
   </si>
   <si>
     <t>Người đàn ông kia là ai vậy?</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>Nobody is going to stop us</t>
   </si>
   <si>
     <t>Không ai có thể ngăn cản chúng ta</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
     <t>I didn't send for her</t>
   </si>
   <si>
     <t>Tôi không gửi cho cô ấy</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>If any harm comes to her</t>
   </si>
   <si>
     <t>Nếu có bất kỳ tổn hại nào xảy đến với cô ấy</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>I'll be at home tonight</t>
   </si>
   <si>
     <t>Tối nay tôi sẽ ở nhà</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>I found the problem was easy</t>
   </si>
   <si>
     <t>Tôi thấy vấn đề này dễ giải quyết</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
     <t>They must be waiting for you</t>
   </si>
   <si>
     <t>Họ hẳn đang đợi bạn</t>
   </si>
   <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>Tom has a thing for Mary</t>
   </si>
   <si>
     <t>Tom có tình cảm với Mary</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
     <t>Tom is in prison for life</t>
   </si>
   <si>
     <t>Tom bị tù chung thân</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
     <t>Why is he wearing a cape</t>
   </si>
   <si>
     <t>Tại sao anh ấy lại mặc áo choàng?</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>It seemed like a good idea</t>
   </si>
   <si>
     <t>Có vẻ như đó là một ý tưởng hay</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>What've they done to him</t>
   </si>
   <si>
     <t>Họ đã làm gì với anh ấy?</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>I never got along with him</t>
   </si>
   <si>
     <t>Tôi chưa bao giờ hòa hợp với anh ta</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>I was at a loss for words</t>
   </si>
   <si>
     <t>Tôi đã không còn lời nào để nói</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>I thought I was the only one</t>
   </si>
   <si>
     <t>Tôi nghĩ tôi là người duy nhất</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>I know what you did to them</t>
   </si>
   <si>
     <t>Tôi biết bạn đã làm gì với họ</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
     <t>It is tossed by the waves</t>
   </si>
   <si>
     <t>Nó bị sóng đánh tung</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
     <t>What else would you call it</t>
   </si>
   <si>
     <t>Bạn còn có thể gọi nó là gì nữa?</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
     <t>It's strange you say that</t>
   </si>
   <si>
     <t>Thật lạ khi bạn nói thế</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
     <t>I'm sure you meant well</t>
   </si>
   <si>
     <t>Tôi chắc chắn bạn có ý tốt</t>
   </si>
   <si>
-    <t>106</t>
-  </si>
-  <si>
     <t>Tom and I had an agreement</t>
   </si>
   <si>
     <t>Tom và tôi đã có một thỏa thuận</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
     <t>The result is still in doubt</t>
   </si>
   <si>
     <t>Kết quả vẫn còn chưa chắc chắn</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
     <t>How kind of you to help me</t>
   </si>
   <si>
     <t>Bạn thật tốt bụng khi giúp tôi</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>I am used to living alone</t>
   </si>
   <si>
     <t>Tôi đã quen với việc sống một mình</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>Mary is back on her feet</t>
   </si>
   <si>
     <t>Mary đã trở lại bình thường</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>I've been kind of busy</t>
   </si>
   <si>
     <t>Tôi đã hơi bận rộn</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>Tom has been on a mission</t>
   </si>
   <si>
     <t>Tom đã thực hiện một nhiệm vụ</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>He was every inch a king</t>
   </si>
   <si>
     <t>Ông ấy là một vị vua thực thụ</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>We gave it our best shot</t>
   </si>
   <si>
     <t>Chúng tôi đã cố gắng hết sức</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
     <t>What does the plan call for</t>
   </si>
   <si>
     <t>Kế hoạch này đòi hỏi những gì?</t>
   </si>
   <si>
-    <t>116</t>
-  </si>
-  <si>
     <t>Have you got anything with you</t>
   </si>
   <si>
     <t>Bạn có mang theo gì không?</t>
   </si>
   <si>
-    <t>117</t>
-  </si>
-  <si>
     <t>Be so true to thy Self</t>
   </si>
   <si>
     <t>Hãy thật trung thực với chính mình</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>Tom and I need each other</t>
   </si>
   <si>
     <t>Tom và tôi cần nhau</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>We're both out of luck</t>
   </si>
   <si>
     <t>Cả hai chúng ta đều không may mắn</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>What did Tom think of that</t>
   </si>
   <si>
     <t>Tom nghĩ gì về điều đó?</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>What kind of rope is this</t>
   </si>
   <si>
     <t>Đây là loại dây gì vậy?</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>Certainly Tom was in on it</t>
   </si>
   <si>
     <t>Chắc chắn Tom đã tham gia vào việc đó</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>I never saw such a woman</t>
   </si>
   <si>
     <t>Tôi chưa bao giờ nhìn thấy một người phụ nữ như vậy</t>
   </si>
   <si>
-    <t>124</t>
-  </si>
-  <si>
     <t>I'm not able to skate</t>
   </si>
   <si>
     <t>Tôi không thể trượt ván</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
     <t>She was here a moment ago</t>
   </si>
   <si>
     <t>Cô ấy đã ở đây một lúc trước</t>
   </si>
   <si>
-    <t>126</t>
-  </si>
-  <si>
     <t>How much longer will it be</t>
   </si>
   <si>
     <t>Sẽ còn bao lâu nữa?</t>
   </si>
   <si>
-    <t>127</t>
-  </si>
-  <si>
     <t>I just have to make a call</t>
   </si>
   <si>
     <t>Tôi chỉ cần gọi điện thôi</t>
   </si>
   <si>
-    <t>128</t>
-  </si>
-  <si>
     <t>You're in the wrong seat</t>
   </si>
   <si>
     <t>Bạn ngồi nhầm ghế rồi</t>
   </si>
   <si>
-    <t>129</t>
-  </si>
-  <si>
     <t>Is that what you think of me</t>
   </si>
   <si>
     <t>Đó có phải là những gì bạn nghĩ về tôi không?</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>I would be happy to do so</t>
   </si>
   <si>
     <t>Tôi sẽ rất vui khi được làm như vậy</t>
   </si>
   <si>
-    <t>131</t>
-  </si>
-  <si>
     <t>Were you with them that night</t>
   </si>
   <si>
     <t>Bạn có ở cùng họ đêm đó không?</t>
   </si>
   <si>
-    <t>132</t>
-  </si>
-  <si>
     <t>Tom will be going with you</t>
   </si>
   <si>
     <t>Tom sẽ đi cùng bạn</t>
   </si>
   <si>
-    <t>133</t>
-  </si>
-  <si>
     <t>I've run out of ideas</t>
   </si>
   <si>
     <t>Tôi đã hết ý tưởng rồi</t>
   </si>
   <si>
-    <t>134</t>
-  </si>
-  <si>
     <t>Why have you turned it off</t>
   </si>
   <si>
     <t>Tại sao bạn lại tắt nó đi?</t>
   </si>
   <si>
-    <t>135</t>
-  </si>
-  <si>
     <t>I'm moving in with Tom</t>
   </si>
   <si>
     <t>Tôi đang chuyển đến sống với Tom</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
     <t>I gave it to her yesterday</t>
   </si>
   <si>
     <t>Tôi đã đưa nó cho cô ấy ngày hôm qua</t>
   </si>
   <si>
-    <t>137</t>
-  </si>
-  <si>
     <t>Tom wants me to give up</t>
   </si>
   <si>
     <t>Tom muốn tôi bỏ cuộc</t>
   </si>
   <si>
-    <t>138</t>
-  </si>
-  <si>
     <t>The meeting was all but over</t>
   </si>
   <si>
     <t>Cuộc họp đã gần kết thúc</t>
   </si>
   <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>My son shall do the work</t>
   </si>
   <si>
     <t>Con trai tôi sẽ làm việc</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
     <t>I've taken care of that</t>
   </si>
   <si>
     <t>Tôi đã lo liệu việc đó rồi</t>
   </si>
   <si>
-    <t>142</t>
-  </si>
-  <si>
     <t>How am I supposed to help</t>
   </si>
   <si>
     <t>Tôi phải giúp thế nào đây?</t>
   </si>
   <si>
-    <t>143</t>
-  </si>
-  <si>
     <t>Why are you opposed to this</t>
   </si>
   <si>
     <t>Tại sao bạn phản đối điều này?</t>
   </si>
   <si>
-    <t>144</t>
-  </si>
-  <si>
     <t>How difficult a thing it is</t>
   </si>
   <si>
     <t>Thật là một điều khó khăn</t>
   </si>
   <si>
-    <t>145</t>
-  </si>
-  <si>
     <t>I had him take my picture</t>
   </si>
   <si>
     <t>Tôi đã nhờ anh ấy chụp ảnh tôi</t>
   </si>
   <si>
-    <t>146</t>
-  </si>
-  <si>
     <t>I'm headed the other way</t>
   </si>
   <si>
     <t>Tôi đang đi theo hướng khác</t>
   </si>
   <si>
-    <t>147</t>
-  </si>
-  <si>
     <t>I know what you've done</t>
   </si>
   <si>
     <t>Tôi biết bạn đã làm gì</t>
   </si>
   <si>
-    <t>148</t>
-  </si>
-  <si>
     <t>What do you suggest we do</t>
   </si>
   <si>
     <t>Bạn đề nghị chúng ta nên làm gì?</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
     <t>Who does Tom do that with</t>
   </si>
   <si>
     <t>Tom làm điều đó với ai?</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>Who will you be coming with</t>
   </si>
   <si>
     <t>Bạn sẽ đi cùng ai?</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>I'm not all that hungry</t>
   </si>
   <si>
     <t>Tôi không đói lắm</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>He treats me as a child</t>
   </si>
   <si>
     <t>Anh ấy đối xử với tôi như một đứa trẻ</t>
   </si>
   <si>
-    <t>153</t>
-  </si>
-  <si>
     <t>I'm not cheating on you</t>
   </si>
   <si>
     <t>Tôi không lừa dối bạn</t>
   </si>
   <si>
-    <t>154</t>
-  </si>
-  <si>
     <t>It's too quiet in here</t>
   </si>
   <si>
     <t>Ở đây quá yên tĩnh</t>
   </si>
   <si>
-    <t>155</t>
-  </si>
-  <si>
     <t>Do what I tell you to do</t>
   </si>
   <si>
     <t>Hãy làm những gì tôi bảo bạn làm</t>
   </si>
   <si>
-    <t>156</t>
-  </si>
-  <si>
     <t>This appears to be the plan</t>
   </si>
   <si>
     <t>Có vẻ như đây là kế hoạch</t>
   </si>
   <si>
-    <t>157</t>
-  </si>
-  <si>
     <t>He wasn't in the mood</t>
   </si>
   <si>
     <t>Anh ấy không có tâm trạng</t>
   </si>
   <si>
-    <t>158</t>
-  </si>
-  <si>
     <t>Will you be gone for long</t>
   </si>
   <si>
     <t>Bạn sẽ đi lâu không?</t>
   </si>
   <si>
-    <t>159</t>
-  </si>
-  <si>
     <t>I'll be frank with you</t>
   </si>
   <si>
     <t>Tôi sẽ thẳng thắn với bạn</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>Are you through with the work</t>
   </si>
   <si>
     <t>Bạn đã hoàn thành công việc chưa?</t>
   </si>
   <si>
-    <t>161</t>
-  </si>
-  <si>
     <t>Let me have a try at it</t>
   </si>
   <si>
     <t>Hãy để tôi thử xem</t>
   </si>
   <si>
-    <t>162</t>
-  </si>
-  <si>
     <t>You are what matters to me</t>
   </si>
   <si>
     <t>Bạn là điều quan trọng với tôi</t>
   </si>
   <si>
-    <t>163</t>
-  </si>
-  <si>
     <t>If I hadn't done that</t>
   </si>
   <si>
     <t>Nếu tôi không làm điều đó</t>
   </si>
   <si>
-    <t>164</t>
-  </si>
-  <si>
     <t>That's a matter of course</t>
   </si>
   <si>
     <t>Đó là chuyện tất nhiên</t>
   </si>
   <si>
-    <t>165</t>
-  </si>
-  <si>
     <t>She is amusing to be with</t>
   </si>
   <si>
     <t>Cô ấy thật vui tính khi ở bên</t>
   </si>
   <si>
-    <t>166</t>
-  </si>
-  <si>
     <t>There is no time to spare</t>
   </si>
   <si>
     <t>Không có thời gian để lãng phí</t>
   </si>
   <si>
-    <t>167</t>
-  </si>
-  <si>
     <t>You were planning to do that</t>
   </si>
   <si>
     <t>Bạn đã định làm điều đó</t>
   </si>
   <si>
-    <t>168</t>
-  </si>
-  <si>
     <t>Are you likely to go there</t>
   </si>
   <si>
     <t>Bạn có khả năng đi đến đó không?</t>
   </si>
   <si>
-    <t>169</t>
-  </si>
-  <si>
     <t>What made you ask me that</t>
   </si>
   <si>
     <t>Điều gì khiến bạn hỏi tôi điều đó</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
     <t>He is in fear of the dog</t>
   </si>
   <si>
     <t>Anh ấy sợ con chó</t>
   </si>
   <si>
-    <t>171</t>
-  </si>
-  <si>
     <t>No time to dwell on this</t>
   </si>
   <si>
     <t>Không có thời gian để bận tâm đến điều này</t>
   </si>
   <si>
-    <t>172</t>
-  </si>
-  <si>
     <t>It is bad to hurt others</t>
   </si>
   <si>
     <t>Làm tổn thương người khác là điều xấu</t>
   </si>
   <si>
-    <t>173</t>
-  </si>
-  <si>
     <t>What more is there to know</t>
   </si>
   <si>
     <t>Còn điều gì nữa để biết</t>
   </si>
   <si>
-    <t>174</t>
-  </si>
-  <si>
     <t>I told Tom I was there</t>
   </si>
   <si>
     <t>Tôi đã nói với Tom là tôi ở đó</t>
   </si>
   <si>
-    <t>175</t>
-  </si>
-  <si>
     <t>It is getting ahead of me</t>
   </si>
   <si>
     <t>Nó đang đi trước tôi</t>
   </si>
   <si>
-    <t>176</t>
-  </si>
-  <si>
     <t>It's almost time to go</t>
   </si>
   <si>
     <t>Gần đến giờ phải đi rồi</t>
   </si>
   <si>
-    <t>177</t>
-  </si>
-  <si>
     <t>How many of you are going</t>
   </si>
   <si>
     <t>Có bao nhiêu người trong số các bạn sẽ đi</t>
   </si>
   <si>
-    <t>178</t>
-  </si>
-  <si>
     <t>How did it make you feel</t>
   </si>
   <si>
     <t>Nó làm bạn cảm thấy thế nào</t>
   </si>
   <si>
-    <t>179</t>
-  </si>
-  <si>
     <t>Which way is the right way</t>
   </si>
   <si>
     <t>Con đường nào là đúng</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>I'll wait up for her</t>
   </si>
   <si>
     <t>Tôi sẽ đợi cô ấy</t>
   </si>
   <si>
-    <t>181</t>
-  </si>
-  <si>
     <t>They put the blame on me</t>
   </si>
   <si>
     <t>Họ đổ lỗi cho tôi</t>
   </si>
   <si>
-    <t>182</t>
-  </si>
-  <si>
     <t>Who do we see about that</t>
   </si>
   <si>
     <t>Chúng ta gặp ai về điều đó?</t>
   </si>
   <si>
-    <t>183</t>
-  </si>
-  <si>
     <t>What would you have us do</t>
   </si>
   <si>
     <t>Bạn muốn chúng tôi làm gì?</t>
   </si>
   <si>
-    <t>184</t>
-  </si>
-  <si>
     <t>He wants me on his team</t>
   </si>
   <si>
     <t>Anh ấy muốn tôi vào đội của anh ấy</t>
   </si>
   <si>
-    <t>185</t>
-  </si>
-  <si>
     <t>I shop here all the time</t>
   </si>
   <si>
     <t>Tôi mua sắm ở đây mọi lúc</t>
   </si>
   <si>
-    <t>186</t>
-  </si>
-  <si>
     <t>I need to let Tom know</t>
   </si>
   <si>
     <t>Tôi cần cho Tom biết</t>
   </si>
   <si>
-    <t>187</t>
-  </si>
-  <si>
     <t>I assume it's not good</t>
   </si>
   <si>
     <t>Tôi cho rằng nó không tốt</t>
   </si>
   <si>
-    <t>188</t>
-  </si>
-  <si>
     <t>I was with her last night</t>
   </si>
   <si>
     <t>Tôi đã ở bên cô ấy đêm qua</t>
   </si>
   <si>
-    <t>189</t>
-  </si>
-  <si>
     <t>This is as far as I go</t>
   </si>
   <si>
     <t>Đây là nơi xa nhất tôi có thể đi</t>
   </si>
   <si>
-    <t>190</t>
-  </si>
-  <si>
     <t>As Tom was out of gas</t>
   </si>
   <si>
     <t>Khi Tom hết xăng</t>
   </si>
   <si>
-    <t>191</t>
-  </si>
-  <si>
     <t>I took a swing at him</t>
   </si>
   <si>
     <t>Tôi đã đánh anh ta một cú</t>
   </si>
   <si>
-    <t>192</t>
-  </si>
-  <si>
     <t>I'm too old for Tom</t>
   </si>
   <si>
     <t>Tôi quá già so với Tom</t>
   </si>
   <si>
-    <t>193</t>
-  </si>
-  <si>
     <t>It's no use doing that</t>
   </si>
   <si>
     <t>Làm như thế chẳng có ích gì</t>
   </si>
   <si>
-    <t>194</t>
-  </si>
-  <si>
     <t>She's in over her head</t>
   </si>
   <si>
     <t>Cô ấy đang ở trong tình trạng quá sức</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
     <t>It's not death I fear</t>
   </si>
   <si>
     <t>Tôi không sợ cái chết</t>
   </si>
   <si>
-    <t>196</t>
-  </si>
-  <si>
     <t>I'd like a little help</t>
   </si>
   <si>
     <t>Tôi muốn được giúp đỡ một chút</t>
   </si>
   <si>
-    <t>197</t>
-  </si>
-  <si>
     <t>What did you think it was</t>
   </si>
   <si>
     <t>Bạn nghĩ nó là gì?</t>
   </si>
   <si>
-    <t>198</t>
-  </si>
-  <si>
     <t>Who should we do that with</t>
   </si>
   <si>
     <t>Chúng ta nên làm điều đó với ai?</t>
   </si>
   <si>
-    <t>199</t>
-  </si>
-  <si>
     <t>Tom is out of the country</t>
   </si>
   <si>
     <t>Tom đang ở nước ngoài</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>As long as you're here</t>
   </si>
   <si>
     <t>Miễn là bạn ở đây</t>
   </si>
   <si>
-    <t>201</t>
-  </si>
-  <si>
     <t>He is eager to go there</t>
   </si>
   <si>
     <t>Anh ấy háo hức muốn đến đó</t>
   </si>
   <si>
-    <t>202</t>
-  </si>
-  <si>
     <t>May I call on you again</t>
   </si>
   <si>
     <t>Tôi có thể gọi lại cho bạn được không?</t>
   </si>
   <si>
-    <t>203</t>
-  </si>
-  <si>
     <t>That's what was going on</t>
   </si>
   <si>
     <t>Đó là những gì đang diễn ra</t>
   </si>
   <si>
-    <t>204</t>
-  </si>
-  <si>
     <t>It's been a slow day</t>
   </si>
   <si>
     <t>Hôm nay là một ngày chậm chạp</t>
   </si>
   <si>
-    <t>205</t>
-  </si>
-  <si>
     <t>I'm glad it's over</t>
   </si>
   <si>
     <t>Tôi mừng vì nó đã kết thúc</t>
   </si>
   <si>
-    <t>206</t>
-  </si>
-  <si>
     <t>Which of these do you like</t>
   </si>
   <si>
     <t>Bạn thích cái nào trong số này?</t>
   </si>
   <si>
-    <t>207</t>
-  </si>
-  <si>
     <t>Let me join in the game</t>
   </si>
   <si>
     <t>Hãy để tôi tham gia trò chơi</t>
   </si>
   <si>
-    <t>208</t>
-  </si>
-  <si>
     <t>Your place is by my side</t>
   </si>
   <si>
     <t>Chỗ của bạn là bên cạnh tôi</t>
   </si>
   <si>
-    <t>209</t>
-  </si>
-  <si>
     <t>He is free to go there</t>
   </si>
   <si>
     <t>Anh ấy được tự do đi đến đó</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>Are you about to do that</t>
   </si>
   <si>
     <t>Bạn sắp làm điều đó à?</t>
   </si>
   <si>
-    <t>211</t>
-  </si>
-  <si>
     <t>Tom is on his way now</t>
   </si>
   <si>
     <t>Tom đang trên đường đến đây</t>
   </si>
   <si>
-    <t>212</t>
-  </si>
-  <si>
     <t>I agreed not to do that</t>
   </si>
   <si>
     <t>Tôi đồng ý không làm điều đó</t>
   </si>
   <si>
-    <t>213</t>
-  </si>
-  <si>
     <t>I'm the one to blame</t>
   </si>
   <si>
     <t>Tôi là người đáng trách</t>
   </si>
   <si>
-    <t>214</t>
-  </si>
-  <si>
     <t>Tom is up on the roof</t>
   </si>
   <si>
     <t>Tom đang ở trên mái nhà</t>
   </si>
   <si>
-    <t>215</t>
-  </si>
-  <si>
     <t>Can you give this to them</t>
   </si>
   <si>
     <t>Bạn có thể đưa cái này cho họ không?</t>
   </si>
   <si>
-    <t>216</t>
-  </si>
-  <si>
     <t>I'm the only one left</t>
   </si>
   <si>
     <t>Tôi là người duy nhất còn lại</t>
   </si>
   <si>
-    <t>217</t>
-  </si>
-  <si>
     <t>I'm in a bad mood</t>
   </si>
   <si>
     <t>Tôi đang trong tâm trạng tồi tệ</t>
   </si>
   <si>
-    <t>218</t>
-  </si>
-  <si>
     <t>It's very nice of you</t>
   </si>
   <si>
     <t>Bạn thật tốt bụng</t>
   </si>
   <si>
-    <t>219</t>
-  </si>
-  <si>
     <t>I have heard of it before</t>
   </si>
   <si>
     <t>Tôi đã nghe nói về nó trước đây</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>I want to speak to Tom</t>
   </si>
   <si>
     <t>Tôi muốn nói chuyện với Tom</t>
   </si>
   <si>
-    <t>221</t>
-  </si>
-  <si>
     <t>I used to work for Tom</t>
   </si>
   <si>
     <t>Tôi đã từng làm việc cho Tom</t>
   </si>
   <si>
-    <t>222</t>
-  </si>
-  <si>
     <t>The best of luck to you</t>
   </si>
   <si>
     <t>Chúc bạn may mắn nhất</t>
   </si>
   <si>
-    <t>223</t>
-  </si>
-  <si>
     <t>What do you want to be</t>
   </si>
   <si>
     <t>Bạn muốn trở thành gì?</t>
   </si>
   <si>
-    <t>224</t>
-  </si>
-  <si>
     <t>Let's not do the work</t>
   </si>
   <si>
     <t>Chúng ta đừng làm việc</t>
   </si>
   <si>
-    <t>225</t>
-  </si>
-  <si>
     <t>I knew it was a lie</t>
   </si>
   <si>
     <t>Tôi biết đó là lời nói dối</t>
   </si>
   <si>
-    <t>226</t>
-  </si>
-  <si>
     <t>The sun was about to set</t>
   </si>
   <si>
     <t>Mặt trời sắp lặn</t>
   </si>
   <si>
-    <t>227</t>
-  </si>
-  <si>
     <t>Is the book on the chair</t>
   </si>
   <si>
     <t>Cuốn sách có ở trên ghế không?</t>
   </si>
   <si>
-    <t>228</t>
-  </si>
-  <si>
     <t>Will you get me a room</t>
   </si>
   <si>
     <t>Bạn có thể cho tôi một phòng được không?</t>
   </si>
   <si>
-    <t>229</t>
-  </si>
-  <si>
     <t>I want to take a rest</t>
   </si>
   <si>
     <t>Tôi muốn nghỉ ngơi</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>What time did you get in</t>
   </si>
   <si>
     <t>Bạn đến vào lúc mấy giờ?</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>You're the one I like</t>
   </si>
   <si>
     <t>Em là người anh thích</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>I had to act at once</t>
   </si>
   <si>
     <t>Tôi phải hành động ngay lập tức</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>That's all we can do</t>
   </si>
   <si>
     <t>Đó là tất cả những gì chúng ta có thể làm</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>Let's get in the car</t>
   </si>
   <si>
     <t>Chúng ta hãy lên xe nhé</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>Is it easy to deal with</t>
   </si>
   <si>
     <t>Có dễ để giải quyết không?</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>I'm still on a call</t>
   </si>
   <si>
     <t>Tôi vẫn đang gọi điện</t>
   </si>
   <si>
-    <t>237</t>
-  </si>
-  <si>
     <t>For the rest of my life</t>
   </si>
   <si>
     <t>Cho đến hết cuộc đời tôi</t>
   </si>
   <si>
-    <t>238</t>
-  </si>
-  <si>
     <t>Will you do me a favor</t>
   </si>
   <si>
     <t>Bạn có thể giúp tôi một việc được không?</t>
   </si>
   <si>
-    <t>239</t>
-  </si>
-  <si>
     <t>Will it help to say that</t>
   </si>
   <si>
     <t>Sẽ giúp ích gì khi nói rằng</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>This is what I came for</t>
   </si>
   <si>
     <t>Đây là lý do tôi đến đây</t>
   </si>
   <si>
-    <t>241</t>
-  </si>
-  <si>
     <t>Do one thing at a time</t>
   </si>
   <si>
     <t>Làm từng việc một</t>
   </si>
   <si>
-    <t>242</t>
-  </si>
-  <si>
     <t>I wish to speak to her</t>
   </si>
   <si>
     <t>Tôi muốn nói chuyện với cô ấy</t>
   </si>
   <si>
-    <t>243</t>
-  </si>
-  <si>
     <t>I'm about to do that</t>
   </si>
   <si>
     <t>Tôi sắp làm điều đó</t>
   </si>
   <si>
-    <t>244</t>
-  </si>
-  <si>
     <t>I was able to do it</t>
   </si>
   <si>
     <t>Tôi đã có thể làm được điều đó</t>
   </si>
   <si>
-    <t>245</t>
-  </si>
-  <si>
     <t>That's not what I did</t>
   </si>
   <si>
     <t>Đó không phải là những gì tôi đã làm</t>
-  </si>
-  <si>
-    <t>246</t>
   </si>
   <si>
     <t>You are only just in time</t>
@@ -2295,9 +1554,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2605,16 +1867,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D247"/>
+  <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="32.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="55.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="42.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="32.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="55.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="42.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -2627,2963 +1888,2236 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21.75">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21.75">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21.75">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21.75">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21.75">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21.75">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="C37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="C44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="C46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="C47" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="C48" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="C51" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="C52" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="C53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="C54" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="C55" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="C56" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C57" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="C58" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="C59" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="C60" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="C61" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="C62" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="C63" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="C64" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="C65" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D66" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="C66" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D67" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="C67" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D68" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="C68" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D69" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="C69" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="C70" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="C71" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D72" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="C72" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="C73" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="C74" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="C75" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="C76" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D77" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="C77" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="C78" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D79" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="C79" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D80" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="C80" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="C81" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D82" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="C82" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="C83" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D84" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="C84" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D85" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="C85" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D86" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="C86" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D87" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="C87" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D88" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="C88" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D89" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="C89" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D90" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="C90" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D91" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="C91" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="C92" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D93" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="C93" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1" t="s">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D94" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="C94" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1" t="s">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D95" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="C95" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1" t="s">
-        <v>287</v>
+        <v>190</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D96" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="C96" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1" t="s">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D97" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="C97" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D98" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="C98" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1" t="s">
-        <v>294</v>
+        <v>170</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D99" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="C99" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1" t="s">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D100" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="C100" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D101" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="C101" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D102" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="C102" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1" t="s">
-        <v>306</v>
+        <v>202</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D103" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="C103" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1" t="s">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D104" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="C104" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1" t="s">
-        <v>312</v>
+        <v>206</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D105" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="C105" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D106" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="C106" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D107" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="C107" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D108" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="C108" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1" t="s">
-        <v>324</v>
+        <v>214</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D109" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="C109" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1" t="s">
-        <v>327</v>
+        <v>216</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D110" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="C110" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1" t="s">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D111" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="C111" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1" t="s">
-        <v>333</v>
+        <v>220</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D112" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="C112" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1" t="s">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D113" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="C113" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D114" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="C114" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D115" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="C115" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1" t="s">
-        <v>345</v>
+        <v>228</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D116" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="C116" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1" t="s">
-        <v>348</v>
+        <v>230</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D117" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="C117" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D118" s="1"/>
+        <v>233</v>
+      </c>
+      <c r="C118" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1" t="s">
-        <v>354</v>
+        <v>234</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D119" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="C119" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1" t="s">
-        <v>357</v>
+        <v>236</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D120" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="C120" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1" t="s">
-        <v>360</v>
+        <v>238</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D121" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="C121" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1" t="s">
-        <v>363</v>
+        <v>240</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D122" s="1"/>
+        <v>241</v>
+      </c>
+      <c r="C122" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1" t="s">
-        <v>366</v>
+        <v>242</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D123" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="C123" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1" t="s">
-        <v>369</v>
+        <v>244</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D124" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="C124" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1" t="s">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D125" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="C125" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1" t="s">
-        <v>375</v>
+        <v>248</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D126" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="C126" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1" t="s">
-        <v>378</v>
+        <v>250</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D127" s="1"/>
+        <v>251</v>
+      </c>
+      <c r="C127" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1" t="s">
-        <v>381</v>
+        <v>252</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D128" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="C128" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1" t="s">
-        <v>384</v>
+        <v>254</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D129" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="C129" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1" t="s">
-        <v>387</v>
+        <v>256</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D130" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="C130" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1" t="s">
-        <v>390</v>
+        <v>258</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D131" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="C131" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1" t="s">
-        <v>393</v>
+        <v>260</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D132" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="C132" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1" t="s">
-        <v>396</v>
+        <v>262</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D133" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="C133" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1" t="s">
-        <v>399</v>
+        <v>264</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D134" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="C134" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1" t="s">
-        <v>402</v>
+        <v>266</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D135" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="C135" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1" t="s">
-        <v>405</v>
+        <v>268</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D136" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="C136" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1" t="s">
-        <v>408</v>
+        <v>270</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D137" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="C137" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1" t="s">
-        <v>411</v>
+        <v>272</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D138" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="C138" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1" t="s">
-        <v>414</v>
+        <v>274</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D139" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="C139" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D140" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="C140" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1" t="s">
-        <v>420</v>
+        <v>278</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D141" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="C141" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1" t="s">
-        <v>421</v>
+        <v>278</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D142" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="C142" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1" t="s">
-        <v>424</v>
+        <v>280</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D143" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="C143" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1" t="s">
-        <v>427</v>
+        <v>282</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D144" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="C144" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1" t="s">
-        <v>430</v>
+        <v>284</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D145" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="C145" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1" t="s">
-        <v>433</v>
+        <v>286</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D146" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="C146" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1" t="s">
-        <v>436</v>
+        <v>288</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D147" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="C147" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1" t="s">
-        <v>439</v>
+        <v>290</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D148" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="C148" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1" t="s">
-        <v>442</v>
+        <v>292</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D149" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="C149" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1" t="s">
-        <v>445</v>
+        <v>294</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D150" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="C150" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1" t="s">
-        <v>448</v>
+        <v>296</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D151" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="C151" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1" t="s">
-        <v>451</v>
+        <v>298</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D152" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="C152" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1" t="s">
-        <v>454</v>
+        <v>300</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D153" s="1"/>
+        <v>301</v>
+      </c>
+      <c r="C153" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1" t="s">
-        <v>457</v>
+        <v>302</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D154" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="C154" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1" t="s">
-        <v>460</v>
+        <v>304</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D155" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="C155" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1" t="s">
-        <v>463</v>
+        <v>306</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D156" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="C156" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1" t="s">
-        <v>466</v>
+        <v>308</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D157" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="C157" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1" t="s">
-        <v>469</v>
+        <v>310</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D158" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="C158" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1" t="s">
-        <v>472</v>
+        <v>312</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D159" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="C159" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1" t="s">
-        <v>475</v>
+        <v>314</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D160" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="C160" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1" t="s">
-        <v>478</v>
+        <v>316</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D161" s="1"/>
+        <v>317</v>
+      </c>
+      <c r="C161" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1" t="s">
-        <v>481</v>
+        <v>318</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D162" s="1"/>
+        <v>319</v>
+      </c>
+      <c r="C162" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1" t="s">
-        <v>484</v>
+        <v>320</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D163" s="1"/>
+        <v>321</v>
+      </c>
+      <c r="C163" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1" t="s">
-        <v>487</v>
+        <v>322</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D164" s="1"/>
+        <v>323</v>
+      </c>
+      <c r="C164" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1" t="s">
-        <v>490</v>
+        <v>324</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D165" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="C165" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1" t="s">
-        <v>493</v>
+        <v>326</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D166" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="C166" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1" t="s">
-        <v>496</v>
+        <v>328</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D167" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="C167" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1" t="s">
-        <v>499</v>
+        <v>330</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D168" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="C168" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1" t="s">
-        <v>502</v>
+        <v>332</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D169" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="C169" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1" t="s">
-        <v>505</v>
+        <v>334</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D170" s="1"/>
+        <v>335</v>
+      </c>
+      <c r="C170" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1" t="s">
-        <v>508</v>
+        <v>336</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D171" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="C171" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1" t="s">
-        <v>511</v>
+        <v>338</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D172" s="1"/>
+        <v>339</v>
+      </c>
+      <c r="C172" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1" t="s">
-        <v>514</v>
+        <v>340</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D173" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="C173" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1" t="s">
-        <v>517</v>
+        <v>342</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D174" s="1"/>
+        <v>343</v>
+      </c>
+      <c r="C174" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1" t="s">
-        <v>520</v>
+        <v>344</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D175" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="C175" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1" t="s">
-        <v>523</v>
+        <v>346</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D176" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="C176" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1" t="s">
-        <v>526</v>
+        <v>348</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D177" s="1"/>
+        <v>349</v>
+      </c>
+      <c r="C177" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1" t="s">
-        <v>529</v>
+        <v>350</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D178" s="1"/>
+        <v>351</v>
+      </c>
+      <c r="C178" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1" t="s">
-        <v>532</v>
+        <v>352</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D179" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="C179" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1" t="s">
-        <v>535</v>
+        <v>354</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D180" s="1"/>
+        <v>355</v>
+      </c>
+      <c r="C180" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1" t="s">
-        <v>538</v>
+        <v>356</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D181" s="1"/>
+        <v>357</v>
+      </c>
+      <c r="C181" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1" t="s">
-        <v>541</v>
+        <v>358</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D182" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="C182" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1" t="s">
-        <v>544</v>
+        <v>360</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D183" s="1"/>
+        <v>361</v>
+      </c>
+      <c r="C183" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1" t="s">
-        <v>547</v>
+        <v>362</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D184" s="1"/>
+        <v>363</v>
+      </c>
+      <c r="C184" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1" t="s">
-        <v>550</v>
+        <v>364</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D185" s="1"/>
+        <v>365</v>
+      </c>
+      <c r="C185" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1" t="s">
-        <v>553</v>
+        <v>366</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D186" s="1"/>
+        <v>367</v>
+      </c>
+      <c r="C186" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1" t="s">
-        <v>556</v>
+        <v>368</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D187" s="1"/>
+        <v>369</v>
+      </c>
+      <c r="C187" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1" t="s">
-        <v>559</v>
+        <v>370</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D188" s="1"/>
+        <v>371</v>
+      </c>
+      <c r="C188" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1" t="s">
-        <v>562</v>
+        <v>372</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D189" s="1"/>
+        <v>373</v>
+      </c>
+      <c r="C189" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1" t="s">
-        <v>565</v>
+        <v>374</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D190" s="1"/>
+        <v>375</v>
+      </c>
+      <c r="C190" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1" t="s">
-        <v>568</v>
+        <v>376</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D191" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="C191" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1" t="s">
-        <v>571</v>
+        <v>378</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D192" s="1"/>
+        <v>379</v>
+      </c>
+      <c r="C192" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1" t="s">
-        <v>574</v>
+        <v>380</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D193" s="1"/>
+        <v>381</v>
+      </c>
+      <c r="C193" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1" t="s">
-        <v>577</v>
+        <v>382</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D194" s="1"/>
+        <v>383</v>
+      </c>
+      <c r="C194" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1" t="s">
-        <v>580</v>
+        <v>384</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D195" s="1"/>
+        <v>385</v>
+      </c>
+      <c r="C195" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1" t="s">
-        <v>583</v>
+        <v>386</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D196" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="C196" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1" t="s">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D197" s="1"/>
+        <v>389</v>
+      </c>
+      <c r="C197" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1" t="s">
-        <v>589</v>
+        <v>390</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D198" s="1"/>
+        <v>391</v>
+      </c>
+      <c r="C198" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1" t="s">
-        <v>592</v>
+        <v>392</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D199" s="1"/>
+        <v>393</v>
+      </c>
+      <c r="C199" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="1" t="s">
-        <v>595</v>
+        <v>394</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D200" s="1"/>
+        <v>395</v>
+      </c>
+      <c r="C200" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1" t="s">
-        <v>598</v>
+        <v>396</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D201" s="1"/>
+        <v>397</v>
+      </c>
+      <c r="C201" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1" t="s">
-        <v>601</v>
+        <v>398</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="D202" s="1"/>
+        <v>399</v>
+      </c>
+      <c r="C202" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="1" t="s">
-        <v>604</v>
+        <v>400</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D203" s="1"/>
+        <v>401</v>
+      </c>
+      <c r="C203" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1" t="s">
-        <v>607</v>
+        <v>402</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="D204" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="C204" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1" t="s">
-        <v>610</v>
+        <v>404</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D205" s="1"/>
+        <v>405</v>
+      </c>
+      <c r="C205" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1" t="s">
-        <v>613</v>
+        <v>406</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D206" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="C206" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1" t="s">
-        <v>616</v>
+        <v>408</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D207" s="1"/>
+        <v>409</v>
+      </c>
+      <c r="C207" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1" t="s">
-        <v>619</v>
+        <v>410</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D208" s="1"/>
+        <v>411</v>
+      </c>
+      <c r="C208" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1" t="s">
-        <v>622</v>
+        <v>412</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D209" s="1"/>
+        <v>413</v>
+      </c>
+      <c r="C209" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1" t="s">
-        <v>625</v>
+        <v>414</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D210" s="1"/>
+        <v>415</v>
+      </c>
+      <c r="C210" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1" t="s">
-        <v>628</v>
+        <v>416</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D211" s="1"/>
+        <v>417</v>
+      </c>
+      <c r="C211" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="1" t="s">
-        <v>631</v>
+        <v>418</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D212" s="1"/>
+        <v>419</v>
+      </c>
+      <c r="C212" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="1" t="s">
-        <v>634</v>
+        <v>420</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D213" s="1"/>
+        <v>421</v>
+      </c>
+      <c r="C213" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="1" t="s">
-        <v>637</v>
+        <v>422</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D214" s="1"/>
+        <v>423</v>
+      </c>
+      <c r="C214" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="1" t="s">
-        <v>640</v>
+        <v>424</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D215" s="1"/>
+        <v>425</v>
+      </c>
+      <c r="C215" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1" t="s">
-        <v>643</v>
+        <v>426</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D216" s="1"/>
+        <v>427</v>
+      </c>
+      <c r="C216" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1" t="s">
-        <v>646</v>
+        <v>428</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D217" s="1"/>
+        <v>429</v>
+      </c>
+      <c r="C217" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1" t="s">
-        <v>649</v>
+        <v>430</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D218" s="1"/>
+        <v>431</v>
+      </c>
+      <c r="C218" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1" t="s">
-        <v>652</v>
+        <v>432</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="D219" s="1"/>
+        <v>433</v>
+      </c>
+      <c r="C219" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1" t="s">
-        <v>655</v>
+        <v>434</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D220" s="1"/>
+        <v>435</v>
+      </c>
+      <c r="C220" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1" t="s">
-        <v>658</v>
+        <v>436</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D221" s="1"/>
+        <v>437</v>
+      </c>
+      <c r="C221" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1" t="s">
-        <v>661</v>
+        <v>438</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D222" s="1"/>
+        <v>439</v>
+      </c>
+      <c r="C222" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1" t="s">
-        <v>664</v>
+        <v>440</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D223" s="1"/>
+        <v>441</v>
+      </c>
+      <c r="C223" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1" t="s">
-        <v>667</v>
+        <v>442</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D224" s="1"/>
+        <v>443</v>
+      </c>
+      <c r="C224" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1" t="s">
-        <v>670</v>
+        <v>444</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D225" s="1"/>
+        <v>445</v>
+      </c>
+      <c r="C225" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1" t="s">
-        <v>673</v>
+        <v>446</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D226" s="1"/>
+        <v>447</v>
+      </c>
+      <c r="C226" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="1" t="s">
-        <v>676</v>
+        <v>448</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D227" s="1"/>
+        <v>449</v>
+      </c>
+      <c r="C227" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1" t="s">
-        <v>679</v>
+        <v>450</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D228" s="1"/>
+        <v>451</v>
+      </c>
+      <c r="C228" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1" t="s">
-        <v>682</v>
+        <v>452</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D229" s="1"/>
+        <v>453</v>
+      </c>
+      <c r="C229" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1" t="s">
-        <v>685</v>
+        <v>454</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D230" s="1"/>
+        <v>455</v>
+      </c>
+      <c r="C230" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1" t="s">
-        <v>688</v>
+        <v>456</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D231" s="1"/>
+        <v>457</v>
+      </c>
+      <c r="C231" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1" t="s">
-        <v>691</v>
+        <v>458</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D232" s="1"/>
+        <v>459</v>
+      </c>
+      <c r="C232" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1" t="s">
-        <v>694</v>
+        <v>460</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D233" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="C233" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1" t="s">
-        <v>697</v>
+        <v>462</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D234" s="1"/>
+        <v>463</v>
+      </c>
+      <c r="C234" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1" t="s">
-        <v>700</v>
+        <v>464</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D235" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="C235" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1" t="s">
-        <v>703</v>
+        <v>466</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="D236" s="1"/>
+        <v>467</v>
+      </c>
+      <c r="C236" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="1" t="s">
-        <v>706</v>
+        <v>468</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="D237" s="1"/>
+        <v>469</v>
+      </c>
+      <c r="C237" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="1" t="s">
-        <v>709</v>
+        <v>470</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D238" s="1"/>
+        <v>471</v>
+      </c>
+      <c r="C238" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="1" t="s">
-        <v>712</v>
+        <v>472</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D239" s="1"/>
+        <v>473</v>
+      </c>
+      <c r="C239" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="1" t="s">
-        <v>715</v>
+        <v>474</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D240" s="1"/>
+        <v>475</v>
+      </c>
+      <c r="C240" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="1" t="s">
-        <v>718</v>
+        <v>476</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D241" s="1"/>
+        <v>477</v>
+      </c>
+      <c r="C241" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="1" t="s">
-        <v>721</v>
+        <v>478</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D242" s="1"/>
+        <v>479</v>
+      </c>
+      <c r="C242" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="1" t="s">
-        <v>724</v>
+        <v>480</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D243" s="1"/>
+        <v>481</v>
+      </c>
+      <c r="C243" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="1" t="s">
-        <v>727</v>
+        <v>482</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D244" s="1"/>
+        <v>483</v>
+      </c>
+      <c r="C244" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="1" t="s">
-        <v>730</v>
+        <v>484</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="D245" s="1"/>
+        <v>485</v>
+      </c>
+      <c r="C245" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="1" t="s">
-        <v>733</v>
+        <v>486</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D246" s="1"/>
+        <v>487</v>
+      </c>
+      <c r="C246" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="1" t="s">
-        <v>736</v>
+        <v>488</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="D247" s="1"/>
+        <v>489</v>
+      </c>
+      <c r="C247" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+      <c r="A248" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C248" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+      <c r="A249" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C249" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
